--- a/用藥記錄/用藥記錄模板.xlsx
+++ b/用藥記錄/用藥記錄模板.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'0'!$A$1:$E$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'0'!$A$1:$F$30</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>驗證功效</t>
   </si>
@@ -47,6 +47,10 @@
   <si>
     <t>服用方式</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -100,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -287,6 +291,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -294,7 +309,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -350,6 +365,12 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -357,6 +378,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -661,101 +688,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D15"/>
+  <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1"/>
-    <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.75" style="1"/>
+    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="8" max="8" width="20" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="20"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="2:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="22"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="16"/>
       <c r="C4" s="17"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="18"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D5" s="19"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D6" s="19"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D7" s="19"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D8" s="19"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D9" s="19"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="19"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="19"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="2:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="19"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
@@ -763,11 +805,12 @@
         <f>COUNTA(B4:B13)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12"/>
+      <c r="E14" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
@@ -775,14 +818,15 @@
         <f>SUM(C4:C13)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="18"/>
+      <c r="E15" s="15" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>

--- a/用藥記錄/用藥記錄模板.xlsx
+++ b/用藥記錄/用藥記錄模板.xlsx
@@ -1,33 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8640"/>
+    <workbookView windowWidth="19095" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'0'!$A$1:$F$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'0'!$A$2:$F$31</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+  <si>
+    <t>方名</t>
+  </si>
   <si>
     <t>驗證功效</t>
+  </si>
+  <si>
+    <t>服用方式</t>
   </si>
   <si>
     <t>藥物名稱</t>
   </si>
   <si>
     <t>用量(g)</t>
+  </si>
+  <si>
+    <t>处理方式</t>
   </si>
   <si>
     <t>本次取其藥性</t>
@@ -44,67 +53,388 @@
   <si>
     <t>g</t>
   </si>
-  <si>
-    <t>服用方式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -134,10 +464,95 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color theme="7"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -174,19 +589,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="slantDashDot">
         <color theme="7"/>
       </right>
@@ -242,52 +644,89 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="slantDashDot">
-        <color theme="7"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -295,109 +734,290 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="51">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="3" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="10" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="11" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="12" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="13" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="15" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+  <cellStyles count="51">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="1"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
+    <cellStyle name="60% - Accent5" xfId="4" builtinId="48"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="Accent5" xfId="7" builtinId="45"/>
+    <cellStyle name="Percent" xfId="8" builtinId="5"/>
+    <cellStyle name="60% - Accent4" xfId="9" builtinId="44"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="60% - Accent3" xfId="11" builtinId="40"/>
+    <cellStyle name="20% - Accent3" xfId="12" builtinId="38"/>
+    <cellStyle name="常规 2" xfId="13"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="20% - Accent2" xfId="15" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
+    <cellStyle name="Accent6" xfId="17" builtinId="49"/>
+    <cellStyle name="60% - Accent1" xfId="18" builtinId="32"/>
+    <cellStyle name="Heading 4" xfId="19" builtinId="19"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31"/>
+    <cellStyle name="40% - Accent4" xfId="21" builtinId="43"/>
+    <cellStyle name="Comma[0]" xfId="22" builtinId="6"/>
+    <cellStyle name="40% - Accent3" xfId="23" builtinId="39"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Bad" xfId="25" builtinId="27"/>
+    <cellStyle name="Linked Cell" xfId="26" builtinId="24"/>
+    <cellStyle name="20% - Accent4" xfId="27" builtinId="42"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Output" xfId="29" builtinId="21"/>
+    <cellStyle name="Note" xfId="30" builtinId="10"/>
+    <cellStyle name="Input" xfId="31" builtinId="20"/>
+    <cellStyle name="Good" xfId="32" builtinId="26"/>
+    <cellStyle name="60% - Accent2" xfId="33" builtinId="36"/>
+    <cellStyle name="Calculation" xfId="34" builtinId="22"/>
+    <cellStyle name="Heading 3" xfId="35" builtinId="18"/>
+    <cellStyle name="Currency[0]" xfId="36" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="37" builtinId="16"/>
+    <cellStyle name="60% - Accent6" xfId="38" builtinId="52"/>
+    <cellStyle name="40% - Accent2" xfId="39" builtinId="35"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Accent1" xfId="41" builtinId="29"/>
+    <cellStyle name="CExplanatory Text" xfId="42" builtinId="53"/>
+    <cellStyle name="Currency" xfId="43" builtinId="4"/>
+    <cellStyle name="20% - Accent1" xfId="44" builtinId="30"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9"/>
+    <cellStyle name="Warning Text" xfId="46" builtinId="11"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="48" builtinId="17"/>
+    <cellStyle name="Comma" xfId="49" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="50" builtinId="23"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -406,7 +1026,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -687,175 +1307,191 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="15.75" style="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="33" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="63.95" customHeight="1" spans="2:5">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="16"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="16"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="16"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="16"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="16"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="16"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="16"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="16"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" customHeight="1" spans="2:5">
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4">
+        <f>COUNTA(B5:B14)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="18" t="s">
+    </row>
+    <row r="16" customHeight="1" spans="2:5">
+      <c r="B16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="12">
-        <f>COUNTA(B4:B13)</f>
+      <c r="C16" s="11">
+        <f>SUM(C5:C14)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13" t="s">
-        <v>5</v>
+      <c r="D16" s="11"/>
+      <c r="E16" s="22" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="14">
-        <f>SUM(C4:C13)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="3">
+    <mergeCell ref="B1:E1"/>
     <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>